--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D2249-F678-D34C-9EE5-04462224024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C5E7C-2F5B-A041-8212-74C788C580BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,11 +37,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>ELOXX Pharmaceuticals, Inc.</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Protein Restored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovery </t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Collagen IV</t>
+  </si>
+  <si>
+    <t>Collagen IIV/LAMB3</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>CFTR</t>
+  </si>
+  <si>
+    <t>Undisclosed</t>
+  </si>
+  <si>
+    <t>Class 1 CF (Inhaled)</t>
+  </si>
+  <si>
+    <t>Alport Syndrome (nonsense)</t>
+  </si>
+  <si>
+    <t>REDB/JEB (nonsense)</t>
+  </si>
+  <si>
+    <t>FAP (nonsense)</t>
+  </si>
+  <si>
+    <t>Class 1 CF</t>
+  </si>
+  <si>
+    <t>Tergeted oncology</t>
+  </si>
+  <si>
+    <t>Alport syndrome</t>
+  </si>
+  <si>
+    <t>Worldwide Cases</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +456,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>155000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905EF633-8AC0-0843-9E70-28098062D73B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C5E7C-2F5B-A041-8212-74C788C580BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC869EFE-3A49-714D-93F9-A24BF93EECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC869EFE-3A49-714D-93F9-A24BF93EECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F42BEF-2B87-B446-B3FB-4A806BD15F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Worldwide Cases</t>
+  </si>
+  <si>
+    <t>Nonsense Mutation</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Reuslts </t>
+  </si>
+  <si>
+    <t>1H23</t>
   </si>
 </sst>
 </file>
@@ -139,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,25 +472,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -485,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -493,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -501,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -509,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -517,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -525,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -533,17 +549,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
         <v>155000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F42BEF-2B87-B446-B3FB-4A806BD15F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB7333-2B5D-DD4C-8D51-D2EB6C8E4B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
   <si>
-    <t>FY20</t>
-  </si>
-  <si>
     <t>Indication</t>
   </si>
   <si>
@@ -110,13 +107,85 @@
   </si>
   <si>
     <t>1H23</t>
+  </si>
+  <si>
+    <t>Lead Optimization</t>
+  </si>
+  <si>
+    <t>IND-Enabling</t>
+  </si>
+  <si>
+    <t>Phase I FIH</t>
+  </si>
+  <si>
+    <t>Phase II</t>
+  </si>
+  <si>
+    <t>Key Milestones</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t>PoC trial start 2H22</t>
+  </si>
+  <si>
+    <t>IND Submission (2H22)</t>
+  </si>
+  <si>
+    <t>IND preparation</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>ELX-02 (SC)</t>
+  </si>
+  <si>
+    <t>ZKN0123 (oral)</t>
+  </si>
+  <si>
+    <t>RMAs (oral)</t>
+  </si>
+  <si>
+    <t>ELX-02 (inhaled)</t>
+  </si>
+  <si>
+    <t>Research &amp; development</t>
+  </si>
+  <si>
+    <t>General &amp; administrative</t>
+  </si>
+  <si>
+    <t>In process research &amp; development</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Basic shares outstanding</t>
+  </si>
+  <si>
+    <t>FY19A</t>
+  </si>
+  <si>
+    <t>FY20A</t>
+  </si>
+  <si>
+    <t>FY21A</t>
+  </si>
+  <si>
+    <t>FY22A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,16 +202,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -150,14 +251,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,100 +708,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="D9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="D10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>17</v>
       </c>
       <c r="C16">
         <v>155000</v>
@@ -574,10 +901,10 @@
         <v>0.06</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -587,18 +914,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>26349</v>
+      </c>
+      <c r="D3">
+        <v>22899</v>
+      </c>
+      <c r="E3">
+        <v>23727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>20449</v>
+      </c>
+      <c r="E4">
+        <v>10692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>22670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>709</v>
+      </c>
+      <c r="E6">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>1749071</v>
+      </c>
+      <c r="E8">
+        <v>2166311</v>
       </c>
     </row>
   </sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB7333-2B5D-DD4C-8D51-D2EB6C8E4B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E39369-2D53-A74B-A75D-2E58C15373FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>FY22A</t>
+  </si>
+  <si>
+    <t>Restructuring charges</t>
   </si>
 </sst>
 </file>
@@ -914,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,6 +949,9 @@
       <c r="B3">
         <v>26349</v>
       </c>
+      <c r="C3">
+        <v>14590</v>
+      </c>
       <c r="D3">
         <v>22899</v>
       </c>
@@ -957,6 +963,12 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
+      <c r="B4">
+        <v>24206</v>
+      </c>
+      <c r="C4">
+        <v>14847</v>
+      </c>
       <c r="D4">
         <v>20449</v>
       </c>
@@ -974,23 +986,40 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="D6">
+      <c r="B7">
+        <v>319</v>
+      </c>
+      <c r="C7">
+        <v>1122</v>
+      </c>
+      <c r="D7">
         <v>709</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1646</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="B9">
+        <v>38063173</v>
+      </c>
+      <c r="D9">
         <v>1749071</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2166311</v>
       </c>
     </row>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E39369-2D53-A74B-A75D-2E58C15373FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5713A66-064F-604E-8D57-63117283A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0A10EB07-B296-FB40-B79B-E498924ABC62}</author>
+    <author>tc={1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split Adjusted 40/1</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Split Adjusted 40/1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -182,13 +209,26 @@
   </si>
   <si>
     <t>Restructuring charges</t>
+  </si>
+  <si>
+    <t>FY23E</t>
+  </si>
+  <si>
+    <t>FY24E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidated Statements of Cash FLows </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,12 +246,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -372,10 +425,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,8 +451,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,6 +469,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="evan domingos - 2023" id="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" userId="S::domingos_evan@wheatoncollege.edu::2746620b-88c1-4bef-8e72-f7c84af34e29" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,6 +772,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B9" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+    <text>Split Adjusted 40/1</text>
+  </threadedComment>
+  <threadedComment ref="C9" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+    <text>Split Adjusted 40/1</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
   <dimension ref="A1:K16"/>
@@ -916,16 +990,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,8 +1020,14 @@
       <c r="E1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -959,7 +1044,7 @@
         <v>23727</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -976,7 +1061,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -984,7 +1069,7 @@
         <v>22670</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -992,7 +1077,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1009,22 +1094,36 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
-        <v>38063173</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="21">
+        <f>38063173/40</f>
+        <v>951579.32499999995</v>
+      </c>
+      <c r="C9" s="21">
+        <f>40124953/40</f>
+        <v>1003123.825</v>
+      </c>
+      <c r="D9" s="21">
         <v>1749071</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="21">
         <v>2166311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5713A66-064F-604E-8D57-63117283A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79546121-9CAF-A348-A021-54C660A46B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>tc={1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     Split Adjusted 40/1</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -218,6 +218,111 @@
   </si>
   <si>
     <t xml:space="preserve">Consolidated Statements of Cash FLows </t>
+  </si>
+  <si>
+    <t>P&amp;L GAAP</t>
+  </si>
+  <si>
+    <t>Consolidated Balance Sheets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Cash &amp; cash equivalents</t>
+  </si>
+  <si>
+    <t>Prepaid expenses &amp; other current assets</t>
+  </si>
+  <si>
+    <t>Restricted cash</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Net property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Operating lease right-of-use asset</t>
+  </si>
+  <si>
+    <t>Other long-term assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Liabilities &amp; Stockholders equity</t>
+  </si>
+  <si>
+    <t>Currrent liabilities</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Accured expenses</t>
+  </si>
+  <si>
+    <t>Current portion of long-term debt</t>
+  </si>
+  <si>
+    <t>Advances form collaboration partners</t>
+  </si>
+  <si>
+    <t>Long-term debt</t>
+  </si>
+  <si>
+    <t>Operating lease liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Stockholders' equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred </t>
+  </si>
+  <si>
+    <t>Commons</t>
+  </si>
+  <si>
+    <t>Common shares outstanding</t>
+  </si>
+  <si>
+    <t>Current portion of operating lease liabilities</t>
+  </si>
+  <si>
+    <t>Deriviative liabilities</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Common stock in treasury (at cost)</t>
+  </si>
+  <si>
+    <t>Common shares in treasury</t>
+  </si>
+  <si>
+    <t>Additional paid-in-capital</t>
+  </si>
+  <si>
+    <t>Accumulated deficit</t>
+  </si>
+  <si>
+    <t>Total liabilities &amp; stockholders' equity</t>
+  </si>
+  <si>
+    <t>Total stockholders' equity</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -774,10 +879,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B9" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+  <threadedComment ref="B10" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
-  <threadedComment ref="C9" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+  <threadedComment ref="C10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
 </ThreadedComments>
@@ -991,10 +1096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,95 +1137,404 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>26349</v>
-      </c>
-      <c r="C3">
-        <v>14590</v>
-      </c>
-      <c r="D3">
-        <v>22899</v>
-      </c>
-      <c r="E3">
-        <v>23727</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>24206</v>
+        <v>26349</v>
       </c>
       <c r="C4">
-        <v>14847</v>
+        <v>14590</v>
       </c>
       <c r="D4">
-        <v>20449</v>
+        <v>22899</v>
       </c>
       <c r="E4">
-        <v>10692</v>
+        <v>23727</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>24206</v>
+      </c>
+      <c r="C5">
+        <v>14847</v>
       </c>
       <c r="D5">
-        <v>22670</v>
+        <v>20449</v>
+      </c>
+      <c r="E5">
+        <v>10692</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>4018</v>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>22670</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>319</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1122</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>709</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1646</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B10" s="21">
         <f>38063173/40</f>
         <v>951579.32499999995</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C10" s="21">
         <f>40124953/40</f>
         <v>1003123.825</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D10" s="21">
         <v>1749071</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E10" s="21">
         <v>2166311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="22"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>19207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <f>B16+B17+B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="0">C16+C17+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>E16+E17+E18</f>
+        <v>20129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <f>B19+B20+B21+B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="1">C19+C20+C21+C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>E19+E20+E21+E22</f>
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>12535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33">
+        <f>E27+E28+E29+E30+E31+E32</f>
+        <v>23091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <f>E33+E34+E35</f>
+        <v>31783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>2166248</v>
+      </c>
+      <c r="E42">
+        <v>2166356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>-2190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>10535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>2612875</v>
+      </c>
+      <c r="E45">
+        <v>263706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>-238323</v>
+      </c>
+      <c r="E46">
+        <v>-274388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <f>D41+D45+D46</f>
+        <v>2374574</v>
+      </c>
+      <c r="E47">
+        <f>E41+E45+E46</f>
+        <v>-10660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49">
+        <f>D47+D36</f>
+        <v>2374574</v>
+      </c>
+      <c r="E49">
+        <f>E47+E36</f>
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <f>D23-D49</f>
+        <v>-2374574</v>
+      </c>
+      <c r="E50">
+        <f>E23-E49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1131,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905EF633-8AC0-0843-9E70-28098062D73B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79546121-9CAF-A348-A021-54C660A46B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876A447-7F4C-6149-A0B7-42DB4B014954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     Split Adjusted 40/1</t>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>SEC Edgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sec.gov/edgar/browse/?CIK=1035354&amp;owner=exclude </t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +376,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -530,11 +544,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -558,9 +573,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,10 +896,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B10" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+  <threadedComment ref="C10" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
-  <threadedComment ref="C10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+  <threadedComment ref="D10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
 </ThreadedComments>
@@ -890,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,447 +1106,501 @@
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{B0C0087C-17CA-C147-98B2-2EA1B2D7DB95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>26349</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14590</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22899</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>23727</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>24206</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>14847</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20449</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10692</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>22670</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>319</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1122</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>709</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1646</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21">
+      <c r="C10" s="21">
         <f>38063173/40</f>
         <v>951579.32499999995</v>
       </c>
-      <c r="C10" s="21">
+      <c r="D10" s="21">
         <f>40124953/40</f>
         <v>1003123.825</v>
       </c>
-      <c r="D10" s="21">
+      <c r="E10" s="21">
         <v>1749071</v>
       </c>
-      <c r="E10" s="21">
+      <c r="F10" s="21">
         <v>2166311</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="E16">
+        <v>42268</v>
+      </c>
+      <c r="F16">
         <v>19207</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
       <c r="E17">
+        <v>299</v>
+      </c>
+      <c r="F17">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="E18">
+        <v>913</v>
+      </c>
+      <c r="F18">
         <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
-        <f>B16+B17+B18</f>
+      <c r="C19">
+        <f>C16+C17+C18</f>
         <v>0</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:D19" si="0">C16+C17+C18</f>
+      <c r="D19">
+        <f t="shared" ref="D19:E19" si="0">D16+D17+D18</f>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>E16+E17+E18</f>
+        <v>43480</v>
+      </c>
+      <c r="F19">
+        <f>F16+F17+F18</f>
         <v>20129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="E20">
+        <v>216</v>
+      </c>
+      <c r="F20">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
       <c r="E21">
+        <v>1443</v>
+      </c>
+      <c r="F21">
         <v>825</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23">
-        <f>B19+B20+B21+B22</f>
+      <c r="C23">
+        <f>C19+C20+C21+C22</f>
         <v>0</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:D23" si="1">C19+C20+C21+C22</f>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="1">D19+D20+D21+D22</f>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>E19+E20+E21+E22</f>
+        <v>45139</v>
+      </c>
+      <c r="F23">
+        <f>F19+F20+F21+F22</f>
         <v>21123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
       <c r="E27">
+        <v>1379</v>
+      </c>
+      <c r="F27">
         <v>3020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="E28">
+        <v>4196</v>
+      </c>
+      <c r="F28">
         <v>2799</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3980</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="E30">
+        <v>3723</v>
+      </c>
+      <c r="F30">
         <v>12535</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>76</v>
       </c>
       <c r="E31">
+        <v>657</v>
+      </c>
+      <c r="F31">
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>78</v>
       </c>
       <c r="E33">
         <f>E27+E28+E29+E30+E31+E32</f>
+        <v>9955</v>
+      </c>
+      <c r="F33">
+        <f>F27+F28+F29+F30+F31+F32</f>
         <v>23091</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
       <c r="E34">
+        <v>11996</v>
+      </c>
+      <c r="F34">
         <v>8557</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
       <c r="E35">
+        <v>804</v>
+      </c>
+      <c r="F35">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="E36">
         <f>E33+E34+E35</f>
+        <v>22755</v>
+      </c>
+      <c r="F36">
+        <f>F33+F34+F35</f>
         <v>31783</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="D41">
-        <v>22</v>
-      </c>
       <c r="E41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2166248</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2166356</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>-2190</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>10535</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>81</v>
       </c>
-      <c r="D45">
-        <v>2612875</v>
-      </c>
       <c r="E45">
+        <v>262875</v>
+      </c>
+      <c r="F45">
         <v>263706</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>-238323</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-274388</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="D47">
-        <f>D41+D45+D46</f>
-        <v>2374574</v>
-      </c>
       <c r="E47">
-        <f>E41+E45+E46</f>
+        <f>E41+E45+E46+E43</f>
+        <v>22384</v>
+      </c>
+      <c r="F47">
+        <f>F41+F45+F46+F43</f>
         <v>-10660</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="D49">
-        <f>D47+D36</f>
-        <v>2374574</v>
-      </c>
       <c r="E49">
         <f>E47+E36</f>
+        <v>45139</v>
+      </c>
+      <c r="F49">
+        <f>F47+F36</f>
         <v>21123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="D50">
-        <f>D23-D49</f>
-        <v>-2374574</v>
-      </c>
       <c r="E50">
         <f>E23-E49</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>F23-F49</f>
         <v>0</v>
       </c>
     </row>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876A447-7F4C-6149-A0B7-42DB4B014954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C68F5-5AA4-E84D-AD13-FDB2A31A8197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C68F5-5AA4-E84D-AD13-FDB2A31A8197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0487CB0A-BD49-ED44-8E45-9B0EA7BB986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>FY24E</t>
   </si>
   <si>
-    <t xml:space="preserve">Consolidated Statements of Cash FLows </t>
-  </si>
-  <si>
     <t>P&amp;L GAAP</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.sec.gov/edgar/browse/?CIK=1035354&amp;owner=exclude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidated Statements of Cash Flows </t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1108,12 +1108,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1126,13 +1126,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1258,13 +1258,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1272,12 +1272,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>42268</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>299</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>913</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <f>C16+C17+C18</f>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>216</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>1443</v>
@@ -1353,12 +1353,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <f>C19+C20+C21+C22</f>
@@ -1379,17 +1379,17 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>1379</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>4196</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>3980</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>3723</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>657</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <v>45</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <f>E27+E28+E29+E30+E31+E32</f>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>11996</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>804</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <f>E33+E34+E35</f>
@@ -1497,17 +1497,17 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>22</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>2166248</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43">
         <v>-2190</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44">
         <v>10535</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>262875</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>-238323</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <f>E41+E45+E46+E43</f>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49">
         <f>E47+E36</f>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <f>E23-E49</f>
@@ -1604,9 +1604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>50</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0487CB0A-BD49-ED44-8E45-9B0EA7BB986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC7E79-57A9-C242-9A4C-8294988DD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
   <authors>
     <author>tc={0A10EB07-B296-FB40-B79B-E498924ABC62}</author>
     <author>tc={1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}</author>
+    <author>tc={F2C85E34-6D0B-6D47-87DF-E4076E35E538}</author>
   </authors>
   <commentList>
     <comment ref="C10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
@@ -60,12 +61,20 @@
     Split Adjusted 40/1</t>
       </text>
     </comment>
+    <comment ref="D44" authorId="2" shapeId="0" xr:uid="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    40-1 Reverse Split 1 Dec calendar ‘22</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -295,9 +304,6 @@
     <t>Current portion of operating lease liabilities</t>
   </si>
   <si>
-    <t>Deriviative liabilities</t>
-  </si>
-  <si>
     <t>Total current liabilities</t>
   </si>
   <si>
@@ -329,6 +335,69 @@
   </si>
   <si>
     <t xml:space="preserve">Consolidated Statements of Cash Flows </t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustments to reconcile net income  to net cash </t>
+  </si>
+  <si>
+    <t>Acquired in-process reseach &amp; development</t>
+  </si>
+  <si>
+    <t>Stock-based compensation</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; amortization</t>
+  </si>
+  <si>
+    <t>Impairment of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Amortization of of operating lease righ-of-use asset</t>
+  </si>
+  <si>
+    <t>Amortization of debt discount</t>
+  </si>
+  <si>
+    <t>Loss (gain) on sals and disposal of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Chaqnges in fair value of derivative liabilities</t>
+  </si>
+  <si>
+    <t>Gain on extinguishment of PPP debt</t>
+  </si>
+  <si>
+    <t>Loss on extinguishment of term debt</t>
+  </si>
+  <si>
+    <t>Changes in operating assets &amp; liabilities</t>
+  </si>
+  <si>
+    <t>Prepaid expenses &amp; other assets</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Merger related costs paid</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Marketable securities</t>
+  </si>
+  <si>
+    <t>Derivative liabilities</t>
+  </si>
+  <si>
+    <t>Taxes payable</t>
+  </si>
+  <si>
+    <t>Accumulated other comprehensive income</t>
   </si>
 </sst>
 </file>
@@ -386,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +624,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,6 +649,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -902,6 +978,9 @@
   <threadedComment ref="D10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
+  <threadedComment ref="D44" dT="2023-05-18T18:58:41.60" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
+    <text>40-1 Reverse Split 1 Dec calendar ‘22</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1108,12 +1187,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1126,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,6 +1358,12 @@
       <c r="A16" t="s">
         <v>54</v>
       </c>
+      <c r="C16">
+        <v>22493</v>
+      </c>
+      <c r="D16">
+        <v>24668</v>
+      </c>
       <c r="E16">
         <v>42268</v>
       </c>
@@ -1287,326 +1372,605 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17">
-        <v>299</v>
-      </c>
-      <c r="F17">
-        <v>261</v>
+      <c r="A17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>33783</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>913</v>
+        <v>299</v>
       </c>
       <c r="F18">
-        <v>661</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>1390</v>
+      </c>
+      <c r="D19">
+        <v>1169</v>
+      </c>
+      <c r="E19">
+        <v>913</v>
+      </c>
+      <c r="F19">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="C19">
-        <f>C16+C17+C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:E19" si="0">D16+D17+D18</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="C20">
+        <f>C16+C18+C19+C17</f>
+        <v>57709</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:F20" si="0">D16+D18+D19+D17</f>
+        <v>25893</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>43480</v>
       </c>
-      <c r="F19">
-        <f>F16+F17+F18</f>
+      <c r="F20">
+        <f t="shared" si="0"/>
         <v>20129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20">
-        <v>216</v>
-      </c>
-      <c r="F20">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>201</v>
+      </c>
+      <c r="D21">
+        <v>133</v>
       </c>
       <c r="E21">
-        <v>1443</v>
+        <v>216</v>
       </c>
       <c r="F21">
-        <v>825</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>924</v>
+      </c>
+      <c r="D22">
+        <v>421</v>
+      </c>
+      <c r="E22">
+        <v>1443</v>
+      </c>
+      <c r="F22">
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="C23">
-        <f>C19+C20+C21+C22</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:E23" si="1">D19+D20+D21+D22</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+      <c r="C24">
+        <f>C20+C21+C22+C23</f>
+        <v>58947</v>
+      </c>
+      <c r="D24">
+        <f>D20+D21+D22+D23</f>
+        <v>26477</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="D24:E24" si="1">E20+E21+E22+E23</f>
         <v>45139</v>
       </c>
-      <c r="F23">
-        <f>F19+F20+F21+F22</f>
+      <c r="F24">
+        <f>F20+F21+F22+F23</f>
         <v>21123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27">
-        <v>1379</v>
-      </c>
-      <c r="F27">
-        <v>3020</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>1871</v>
+      </c>
+      <c r="D28">
+        <v>481</v>
       </c>
       <c r="E28">
-        <v>4196</v>
+        <v>1379</v>
       </c>
       <c r="F28">
-        <v>2799</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>4655</v>
+      </c>
+      <c r="D29">
+        <v>2886</v>
+      </c>
+      <c r="E29">
+        <v>4196</v>
       </c>
       <c r="F29">
-        <v>3980</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30">
-        <v>3723</v>
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <v>4336</v>
+      </c>
+      <c r="D30">
+        <v>5239</v>
       </c>
       <c r="F30">
-        <v>12535</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>403</v>
+      </c>
+      <c r="D31">
+        <v>805</v>
       </c>
       <c r="E31">
-        <v>657</v>
+        <v>3723</v>
       </c>
       <c r="F31">
-        <v>712</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>499</v>
+      </c>
+      <c r="D32">
+        <v>389</v>
+      </c>
+      <c r="E32">
+        <v>657</v>
       </c>
       <c r="F32">
-        <v>45</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33">
-        <f>E27+E28+E29+E30+E31+E32</f>
-        <v>9955</v>
+        <v>105</v>
       </c>
       <c r="F33">
-        <f>F27+F28+F29+F30+F31+F32</f>
-        <v>23091</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34">
-        <v>11996</v>
-      </c>
-      <c r="F34">
-        <v>8557</v>
+        <v>106</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <f>C28+C29+C30+C31+C32+C33+C34</f>
+        <v>11807</v>
+      </c>
+      <c r="D35">
+        <f>D28+D29+D30+D31+D32+D33+D34</f>
+        <v>9838</v>
       </c>
       <c r="E35">
-        <v>804</v>
+        <f>E28+E29+E30+E31+E32+E33+E34</f>
+        <v>9955</v>
       </c>
       <c r="F35">
-        <v>135</v>
+        <f>F28+F29+F30+F31+F32+F33+F34</f>
+        <v>23091</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>10502</v>
+      </c>
+      <c r="D36">
+        <v>6376</v>
+      </c>
+      <c r="E36">
+        <v>11996</v>
+      </c>
+      <c r="F36">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>425</v>
+      </c>
+      <c r="D37">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>804</v>
+      </c>
+      <c r="F37">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="E36">
-        <f>E33+E34+E35</f>
+      <c r="C38">
+        <f>C35+C36+C37</f>
+        <v>22734</v>
+      </c>
+      <c r="D38">
+        <f>D35+D36+D37</f>
+        <v>16247</v>
+      </c>
+      <c r="E38">
+        <f>E35+E36+E37</f>
         <v>22755</v>
       </c>
-      <c r="F36">
-        <f>F33+F34+F35</f>
+      <c r="F38">
+        <f>F35+F36+F37</f>
         <v>31783</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41">
-        <v>22</v>
-      </c>
-      <c r="F41">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42">
-        <v>2166248</v>
-      </c>
-      <c r="F42">
-        <v>2166356</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>402</v>
+      </c>
+      <c r="D43">
+        <v>404</v>
       </c>
       <c r="E43">
-        <v>-2190</v>
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44">
-        <v>10535</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="21">
+        <f>40030763/40</f>
+        <v>1000769.075</v>
+      </c>
+      <c r="D44" s="21">
+        <f>40157187/40</f>
+        <v>1003929.675</v>
+      </c>
+      <c r="E44" s="21">
+        <v>2166248</v>
+      </c>
+      <c r="F44" s="21">
+        <v>2166356</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>-1703</v>
+      </c>
+      <c r="D45">
+        <v>-1828</v>
       </c>
       <c r="E45">
-        <v>262875</v>
-      </c>
-      <c r="F45">
-        <v>263706</v>
+        <v>-2190</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46">
-        <v>-238323</v>
-      </c>
-      <c r="F46">
-        <v>-274388</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C46" s="21">
+        <f>174515/40</f>
+        <v>4362.875</v>
+      </c>
+      <c r="D46" s="21">
+        <f>193735/40</f>
+        <v>4843.375</v>
+      </c>
+      <c r="E46" s="21">
+        <v>10535</v>
+      </c>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>174515</v>
+      </c>
+      <c r="D47">
+        <v>183250</v>
       </c>
       <c r="E47">
-        <f>E41+E45+E46+E43</f>
-        <v>22384</v>
+        <v>262875</v>
       </c>
       <c r="F47">
-        <f>F41+F45+F46+F43</f>
-        <v>-10660</v>
+        <v>263706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="21">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>-137019</v>
+      </c>
+      <c r="D49">
+        <v>-171596</v>
       </c>
       <c r="E49">
-        <f>E47+E36</f>
-        <v>45139</v>
+        <v>-238323</v>
       </c>
       <c r="F49">
-        <f>F47+F36</f>
-        <v>21123</v>
+        <v>-274388</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <f>C43+C47+C49+C45+C48</f>
+        <v>36213</v>
+      </c>
+      <c r="D50">
+        <f>D43+D47+D49+D45+D48</f>
+        <v>10230</v>
       </c>
       <c r="E50">
-        <f>E23-E49</f>
-        <v>0</v>
+        <f>E43+E47+E49+E45+E48</f>
+        <v>22384</v>
       </c>
       <c r="F50">
-        <f>F23-F49</f>
-        <v>0</v>
+        <f>F43+F47+F49+F45+F48</f>
+        <v>-10660</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52">
+        <f>C50+C38</f>
+        <v>58947</v>
+      </c>
+      <c r="D52">
+        <f>D50+D38</f>
+        <v>26477</v>
+      </c>
+      <c r="E52">
+        <f>E50+E38</f>
+        <v>45139</v>
+      </c>
+      <c r="F52">
+        <f>F50+F38</f>
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53">
+        <f>C24-C52</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>D24-D52</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>E24-E52</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>F24-F52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>87</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC7E79-57A9-C242-9A4C-8294988DD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8D785-6896-814C-A7A9-9DC41F899D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -73,8 +73,27 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9BC4921A-47E7-A54E-9CC7-958804783E0D}</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{9BC4921A-47E7-A54E-9CC7-958804783E0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    FY20 10K: 5-12 years
+Assume average</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -355,18 +374,9 @@
     <t>Impairment of property &amp; equipment</t>
   </si>
   <si>
-    <t>Amortization of of operating lease righ-of-use asset</t>
-  </si>
-  <si>
     <t>Amortization of debt discount</t>
   </si>
   <si>
-    <t>Loss (gain) on sals and disposal of property &amp; equipment</t>
-  </si>
-  <si>
-    <t>Chaqnges in fair value of derivative liabilities</t>
-  </si>
-  <si>
     <t>Gain on extinguishment of PPP debt</t>
   </si>
   <si>
@@ -398,6 +408,114 @@
   </si>
   <si>
     <t>Accumulated other comprehensive income</t>
+  </si>
+  <si>
+    <t>Amortization of of operating lease right-of-use asset</t>
+  </si>
+  <si>
+    <t>Changes in fair value of derivative liabilities</t>
+  </si>
+  <si>
+    <t>Loss (gain) on sales and disposal of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Amortization, net, of premiums and discounts on investments</t>
+  </si>
+  <si>
+    <t>Purchases of marketable securities</t>
+  </si>
+  <si>
+    <t>Proceeds from maturities of marketable securities</t>
+  </si>
+  <si>
+    <t>Purchase of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from sales of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Cash received (paid) for long-term deposits</t>
+  </si>
+  <si>
+    <t>Net cash provided by (used in) investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from underwritten public offering, net of issuance costs</t>
+  </si>
+  <si>
+    <t>Proceeds from debt financing obligation</t>
+  </si>
+  <si>
+    <t>Payment of debt issuance costs</t>
+  </si>
+  <si>
+    <t>Repayment of term loan principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceeds from exercise of stock options </t>
+  </si>
+  <si>
+    <t>Proceeds from sale of common stock under at-the-market sales agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment for settlement of taxes upon vesting of RSU's </t>
+  </si>
+  <si>
+    <t>Proceeeds from advances from collaboration partners</t>
+  </si>
+  <si>
+    <t>Net cash (used in) provided by financing activities</t>
+  </si>
+  <si>
+    <t>Net Increase in cash, cash equivalents, &amp; restricted cash</t>
+  </si>
+  <si>
+    <t>Beginning cash, cash equivalents, &amp; restricted cash</t>
+  </si>
+  <si>
+    <t>End cash, cash equivalents, &amp; restricted cash</t>
+  </si>
+  <si>
+    <t>Property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Computers &amp; software</t>
+  </si>
+  <si>
+    <t>Office furniture and equipment</t>
+  </si>
+  <si>
+    <t>Laboratory equipment</t>
+  </si>
+  <si>
+    <t>remaining lease</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses &amp; Other Current Assets</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>VAT recievables</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Leasehold improvement</t>
+  </si>
+  <si>
+    <t>Total property &amp; equipment at cost</t>
   </si>
 </sst>
 </file>
@@ -624,7 +742,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -650,6 +768,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -984,12 +1103,21 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D6" dT="2023-05-18T19:48:29.20" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{9BC4921A-47E7-A54E-9CC7-958804783E0D}">
+    <text>FY20 10K: 5-12 years
+Assume average</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3184A-B12E-EE4E-A1B7-E63938A6B215}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1501,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>33783</v>
@@ -1594,7 +1722,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F33">
         <v>45</v>
@@ -1602,7 +1730,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34">
         <v>43</v>
@@ -1783,7 +1911,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="21">
         <v>18</v>
@@ -1878,8 +2006,12 @@
       <c r="A56" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="24">
+        <v>-50874</v>
+      </c>
+      <c r="D56" s="24">
+        <v>-34577</v>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
@@ -1897,11 +2029,23 @@
       <c r="A59" s="20" t="s">
         <v>90</v>
       </c>
+      <c r="C59">
+        <v>11336</v>
+      </c>
+      <c r="D59">
+        <v>8666</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="C60">
+        <v>87</v>
+      </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
@@ -1910,67 +2054,364 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="C62">
+        <v>472</v>
+      </c>
+      <c r="D62">
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C63">
+        <v>535</v>
+      </c>
+      <c r="D63">
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64">
+        <v>-301</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
+      <c r="C70">
+        <v>83</v>
+      </c>
+      <c r="D70">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>1124</v>
+      </c>
+      <c r="D71">
+        <v>-1390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="C72">
+        <v>-1300</v>
+      </c>
+      <c r="D72">
+        <v>-1769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74">
+        <v>-472</v>
+      </c>
+      <c r="D74">
+        <v>-502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75">
+        <v>-79</v>
+      </c>
+      <c r="D75">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>103</v>
+      <c r="C76">
+        <f>C56+C58+C59+C60+C61+C62+C63+C64+C65+C66+C67+C68+C70+C71+C72+C73+C74+C75</f>
+        <v>-39391</v>
+      </c>
+      <c r="D76">
+        <f>D56+D58+D59+D60+D61+D62+D63+D64+D65+D66+D67+D68+D70+D71+D72+D73+D74+D75</f>
+        <v>-28166</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:F76" si="2">E56+E58+E59+E60+E61+E62+E63+E64+E65+E66+E67+E68+E70+E71+E72+E73+E74+E75</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>-67214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80">
+        <v>33750</v>
+      </c>
+      <c r="D80">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83">
+        <v>-22</v>
+      </c>
+      <c r="D83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <f>C79+C80+C82+C81+C83</f>
+        <v>-33524</v>
+      </c>
+      <c r="D84">
+        <f>D79+D80+D82+D81+D83</f>
+        <v>33792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <v>32172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88">
+        <v>15000</v>
+      </c>
+      <c r="D88">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89">
+        <v>-276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <v>-4583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93">
+        <v>-1378</v>
+      </c>
+      <c r="D93">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94">
+        <v>403</v>
+      </c>
+      <c r="D94">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95">
+        <f>C87+C88+C89+C90+C91+C92+C93+C94</f>
+        <v>46800</v>
+      </c>
+      <c r="D95">
+        <f>D87+D88+D89+D90+D91+D92+D93+D94</f>
+        <v>-3438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97">
+        <f>C95+C84+C76</f>
+        <v>-26115</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:F97" si="3">D95+D84+D76</f>
+        <v>2188</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98">
+        <v>48651</v>
+      </c>
+      <c r="D98">
+        <f>C99</f>
+        <v>22536</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:F98" si="4">D99</f>
+        <v>24724</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>24724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99">
+        <f>C98+C97</f>
+        <v>22536</v>
+      </c>
+      <c r="D99">
+        <f>D98+D97</f>
+        <v>24724</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99:F99" si="5">E98+E97</f>
+        <v>24724</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>24724</v>
       </c>
     </row>
   </sheetData>
@@ -1980,19 +2421,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905EF633-8AC0-0843-9E70-28098062D73B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905EF633-8AC0-0843-9E70-28098062D73B}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <f>17/2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8D785-6896-814C-A7A9-9DC41F899D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA5C51-2F02-604D-9238-364E4444F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="21060" windowHeight="18660" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1336,10 +1336,10 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA5C51-2F02-604D-9238-364E4444F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A2B621-32B9-024E-A576-9CCD49173DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="21060" windowHeight="18660" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
+    <workbookView xWindow="3640" yWindow="980" windowWidth="21060" windowHeight="18660" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Schedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
     <author>tc={F2C85E34-6D0B-6D47-87DF-E4076E35E538}</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +54,7 @@
     Split Adjusted 40/1</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+    <comment ref="T10" authorId="1" shapeId="0" xr:uid="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +62,7 @@
     Split Adjusted 40/1</t>
       </text>
     </comment>
-    <comment ref="D44" authorId="2" shapeId="0" xr:uid="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -215,9 +216,6 @@
     <t>General &amp; administrative</t>
   </si>
   <si>
-    <t>In process research &amp; development</t>
-  </si>
-  <si>
     <t>Other Expense</t>
   </si>
   <si>
@@ -516,6 +514,51 @@
   </si>
   <si>
     <t>Total property &amp; equipment at cost</t>
+  </si>
+  <si>
+    <t>In-process research &amp; development</t>
+  </si>
+  <si>
+    <t>Cash received in merger activities</t>
+  </si>
+  <si>
+    <t>1Q20</t>
+  </si>
+  <si>
+    <t>2Q20A</t>
+  </si>
+  <si>
+    <t>3Q20A</t>
+  </si>
+  <si>
+    <t>4Q20A</t>
+  </si>
+  <si>
+    <t>1Q21A</t>
+  </si>
+  <si>
+    <t>2Q21A</t>
+  </si>
+  <si>
+    <t>3Q21A</t>
+  </si>
+  <si>
+    <t>4Q21A</t>
+  </si>
+  <si>
+    <t>1Q22A</t>
+  </si>
+  <si>
+    <t>2Q22A</t>
+  </si>
+  <si>
+    <t>3Q22A</t>
+  </si>
+  <si>
+    <t>4Q22A</t>
+  </si>
+  <si>
+    <t>1Q23A</t>
   </si>
 </sst>
 </file>
@@ -524,9 +567,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,12 +600,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -740,15 +777,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -759,16 +795,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1091,13 +1125,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C10" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
+  <threadedComment ref="S10" dT="2023-05-17T12:57:04.26" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{0A10EB07-B296-FB40-B79B-E498924ABC62}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
-  <threadedComment ref="D10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
+  <threadedComment ref="T10" dT="2023-05-17T12:57:34.94" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{1AEF2BC5-7045-1C4A-865C-7F0BB084F9B3}">
     <text>Split Adjusted 40/1</text>
   </threadedComment>
-  <threadedComment ref="D44" dT="2023-05-18T18:58:41.60" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
+  <threadedComment ref="T44" dT="2023-05-18T18:58:41.60" personId="{AF54F59E-AD96-AD40-AAAB-E41AF7A507FF}" id="{F2C85E34-6D0B-6D47-87DF-E4076E35E538}">
     <text>40-1 Reverse Split 1 Dec calendar ‘22</text>
   </threadedComment>
 </ThreadedComments>
@@ -1132,12 +1166,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -1169,16 +1203,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
@@ -1189,95 +1223,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="K7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="K8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
       <c r="K11" t="s">
         <v>33</v>
       </c>
@@ -1315,12 +1333,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1333,1085 +1351,1273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="W1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="C4">
+      <c r="K4">
+        <v>7899</v>
+      </c>
+      <c r="O4">
+        <v>3488</v>
+      </c>
+      <c r="S4">
         <v>26349</v>
       </c>
-      <c r="D4">
+      <c r="T4">
         <v>14590</v>
       </c>
-      <c r="E4">
+      <c r="U4">
         <v>22899</v>
       </c>
-      <c r="F4">
+      <c r="V4">
         <v>23727</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
+      <c r="K5">
+        <v>3054</v>
+      </c>
+      <c r="O5">
+        <v>1995</v>
+      </c>
+      <c r="S5">
         <v>24206</v>
       </c>
-      <c r="D5">
+      <c r="T5">
         <v>14847</v>
       </c>
-      <c r="E5">
+      <c r="U5">
         <v>20449</v>
       </c>
-      <c r="F5">
+      <c r="V5">
         <v>10692</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6">
+        <v>22670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>22670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K8">
+        <v>667</v>
+      </c>
+      <c r="O8">
+        <v>747</v>
+      </c>
+      <c r="S8">
+        <v>319</v>
+      </c>
+      <c r="T8">
+        <v>1122</v>
+      </c>
+      <c r="U8">
+        <v>709</v>
+      </c>
+      <c r="V8">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>319</v>
-      </c>
-      <c r="D8">
-        <v>1122</v>
-      </c>
-      <c r="E8">
-        <v>709</v>
-      </c>
-      <c r="F8">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="K10">
+        <v>2166275</v>
+      </c>
+      <c r="O10">
+        <v>2166356</v>
+      </c>
+      <c r="S10" s="19">
         <f>38063173/40</f>
         <v>951579.32499999995</v>
       </c>
-      <c r="D10" s="21">
+      <c r="T10" s="19">
         <f>40124953/40</f>
         <v>1003123.825</v>
       </c>
-      <c r="E10" s="21">
+      <c r="U10" s="19">
         <v>1749071</v>
       </c>
-      <c r="F10" s="21">
+      <c r="V10" s="19">
         <v>2166311</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="S16">
+        <v>22493</v>
+      </c>
+      <c r="T16">
+        <v>24668</v>
+      </c>
+      <c r="U16">
+        <v>42268</v>
+      </c>
+      <c r="V16">
+        <v>19207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>33783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18">
+        <v>43</v>
+      </c>
+      <c r="T18">
+        <v>56</v>
+      </c>
+      <c r="U18">
+        <v>299</v>
+      </c>
+      <c r="V18">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="C16">
-        <v>22493</v>
-      </c>
-      <c r="D16">
-        <v>24668</v>
-      </c>
-      <c r="E16">
-        <v>42268</v>
-      </c>
-      <c r="F16">
-        <v>19207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="S19">
+        <v>1390</v>
+      </c>
+      <c r="T19">
+        <v>1169</v>
+      </c>
+      <c r="U19">
+        <v>913</v>
+      </c>
+      <c r="V19">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20">
+        <f>S16+S18+S19+S17</f>
+        <v>57709</v>
+      </c>
+      <c r="T20">
+        <f>T16+T18+T19+T17</f>
+        <v>25893</v>
+      </c>
+      <c r="U20">
+        <f>U16+U18+U19+U17</f>
+        <v>43480</v>
+      </c>
+      <c r="V20">
+        <f>V16+V18+V19+V17</f>
+        <v>20129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>201</v>
+      </c>
+      <c r="T21">
+        <v>133</v>
+      </c>
+      <c r="U21">
+        <v>216</v>
+      </c>
+      <c r="V21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22">
+        <v>924</v>
+      </c>
+      <c r="T22">
+        <v>421</v>
+      </c>
+      <c r="U22">
+        <v>1443</v>
+      </c>
+      <c r="V22">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23">
+        <v>113</v>
+      </c>
+      <c r="T23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <f>S20+S21+S22+S23</f>
+        <v>58947</v>
+      </c>
+      <c r="T24">
+        <f>T20+T21+T22+T23</f>
+        <v>26477</v>
+      </c>
+      <c r="U24">
+        <f>U20+U21+U22+U23</f>
+        <v>45139</v>
+      </c>
+      <c r="V24">
+        <f>V20+V21+V22+V23</f>
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28">
+        <v>1871</v>
+      </c>
+      <c r="T28">
+        <v>481</v>
+      </c>
+      <c r="U28">
+        <v>1379</v>
+      </c>
+      <c r="V28">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29">
+        <v>4655</v>
+      </c>
+      <c r="T29">
+        <v>2886</v>
+      </c>
+      <c r="U29">
+        <v>4196</v>
+      </c>
+      <c r="V29">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30">
+        <v>4336</v>
+      </c>
+      <c r="T30">
+        <v>5239</v>
+      </c>
+      <c r="V30">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31">
+        <v>403</v>
+      </c>
+      <c r="T31">
+        <v>805</v>
+      </c>
+      <c r="U31">
+        <v>3723</v>
+      </c>
+      <c r="V31">
+        <v>12535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="S32">
+        <v>499</v>
+      </c>
+      <c r="T32">
+        <v>389</v>
+      </c>
+      <c r="U32">
+        <v>657</v>
+      </c>
+      <c r="V32">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="C17">
-        <v>33783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18">
+      <c r="V33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S34">
         <v>43</v>
       </c>
-      <c r="D18">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>299</v>
-      </c>
-      <c r="F18">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>1390</v>
-      </c>
-      <c r="D19">
-        <v>1169</v>
-      </c>
-      <c r="E19">
-        <v>913</v>
-      </c>
-      <c r="F19">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <f>C16+C18+C19+C17</f>
-        <v>57709</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:F20" si="0">D16+D18+D19+D17</f>
-        <v>25893</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>43480</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>20129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>201</v>
-      </c>
-      <c r="D21">
-        <v>133</v>
-      </c>
-      <c r="E21">
-        <v>216</v>
-      </c>
-      <c r="F21">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22">
-        <v>924</v>
-      </c>
-      <c r="D22">
-        <v>421</v>
-      </c>
-      <c r="E22">
-        <v>1443</v>
-      </c>
-      <c r="F22">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <v>113</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24">
-        <f>C20+C21+C22+C23</f>
-        <v>58947</v>
-      </c>
-      <c r="D24">
-        <f>D20+D21+D22+D23</f>
-        <v>26477</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="D24:E24" si="1">E20+E21+E22+E23</f>
-        <v>45139</v>
-      </c>
-      <c r="F24">
-        <f>F20+F21+F22+F23</f>
-        <v>21123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <v>1871</v>
-      </c>
-      <c r="D28">
-        <v>481</v>
-      </c>
-      <c r="E28">
-        <v>1379</v>
-      </c>
-      <c r="F28">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29">
-        <v>4655</v>
-      </c>
-      <c r="D29">
-        <v>2886</v>
-      </c>
-      <c r="E29">
-        <v>4196</v>
-      </c>
-      <c r="F29">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30">
-        <v>4336</v>
-      </c>
-      <c r="D30">
-        <v>5239</v>
-      </c>
-      <c r="F30">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="T34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35">
+        <f>S28+S29+S30+S31+S32+S33+S34</f>
+        <v>11807</v>
+      </c>
+      <c r="T35">
+        <f>T28+T29+T30+T31+T32+T33+T34</f>
+        <v>9838</v>
+      </c>
+      <c r="U35">
+        <f>U28+U29+U30+U31+U32+U33+U34</f>
+        <v>9955</v>
+      </c>
+      <c r="V35">
+        <f>V28+V29+V30+V31+V32+V33+V34</f>
+        <v>23091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="C31">
-        <v>403</v>
-      </c>
-      <c r="D31">
-        <v>805</v>
-      </c>
-      <c r="E31">
-        <v>3723</v>
-      </c>
-      <c r="F31">
-        <v>12535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32">
-        <v>499</v>
-      </c>
-      <c r="D32">
-        <v>389</v>
-      </c>
-      <c r="E32">
-        <v>657</v>
-      </c>
-      <c r="F32">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34">
-        <v>43</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35">
-        <f>C28+C29+C30+C31+C32+C33+C34</f>
-        <v>11807</v>
-      </c>
-      <c r="D35">
-        <f>D28+D29+D30+D31+D32+D33+D34</f>
-        <v>9838</v>
-      </c>
-      <c r="E35">
-        <f>E28+E29+E30+E31+E32+E33+E34</f>
-        <v>9955</v>
-      </c>
-      <c r="F35">
-        <f>F28+F29+F30+F31+F32+F33+F34</f>
-        <v>23091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="S36">
+        <v>10502</v>
+      </c>
+      <c r="T36">
+        <v>6376</v>
+      </c>
+      <c r="U36">
+        <v>11996</v>
+      </c>
+      <c r="V36">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="C36">
-        <v>10502</v>
-      </c>
-      <c r="D36">
-        <v>6376</v>
-      </c>
-      <c r="E36">
-        <v>11996</v>
-      </c>
-      <c r="F36">
-        <v>8557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="S37">
+        <v>425</v>
+      </c>
+      <c r="T37">
+        <v>33</v>
+      </c>
+      <c r="U37">
+        <v>804</v>
+      </c>
+      <c r="V37">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="C37">
-        <v>425</v>
-      </c>
-      <c r="D37">
-        <v>33</v>
-      </c>
-      <c r="E37">
-        <v>804</v>
-      </c>
-      <c r="F37">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="S38">
+        <f>S35+S36+S37</f>
+        <v>22734</v>
+      </c>
+      <c r="T38">
+        <f>T35+T36+T37</f>
+        <v>16247</v>
+      </c>
+      <c r="U38">
+        <f>U35+U36+U37</f>
+        <v>22755</v>
+      </c>
+      <c r="V38">
+        <f>V35+V36+V37</f>
+        <v>31783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C38">
-        <f>C35+C36+C37</f>
-        <v>22734</v>
-      </c>
-      <c r="D38">
-        <f>D35+D36+D37</f>
-        <v>16247</v>
-      </c>
-      <c r="E38">
-        <f>E35+E36+E37</f>
-        <v>22755</v>
-      </c>
-      <c r="F38">
-        <f>F35+F36+F37</f>
-        <v>31783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="S43">
+        <v>402</v>
+      </c>
+      <c r="T43">
+        <v>404</v>
+      </c>
+      <c r="U43">
+        <v>22</v>
+      </c>
+      <c r="V43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="C43">
-        <v>402</v>
-      </c>
-      <c r="D43">
-        <v>404</v>
-      </c>
-      <c r="E43">
-        <v>22</v>
-      </c>
-      <c r="F43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="21">
+      <c r="S44" s="19">
         <f>40030763/40</f>
         <v>1000769.075</v>
       </c>
-      <c r="D44" s="21">
+      <c r="T44" s="19">
         <f>40157187/40</f>
         <v>1003929.675</v>
       </c>
-      <c r="E44" s="21">
+      <c r="U44" s="19">
         <v>2166248</v>
       </c>
-      <c r="F44" s="21">
+      <c r="V44" s="19">
         <v>2166356</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45">
+        <v>-1703</v>
+      </c>
+      <c r="T45">
+        <v>-1828</v>
+      </c>
+      <c r="U45">
+        <v>-2190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="C45">
-        <v>-1703</v>
-      </c>
-      <c r="D45">
-        <v>-1828</v>
-      </c>
-      <c r="E45">
-        <v>-2190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="S46" s="19">
         <f>174515/40</f>
         <v>4362.875</v>
       </c>
-      <c r="D46" s="21">
+      <c r="T46" s="19">
         <f>193735/40</f>
         <v>4843.375</v>
       </c>
-      <c r="E46" s="21">
+      <c r="U46" s="19">
         <v>10535</v>
       </c>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47">
+        <v>174515</v>
+      </c>
+      <c r="T47">
+        <v>183250</v>
+      </c>
+      <c r="U47">
+        <v>262875</v>
+      </c>
+      <c r="V47">
+        <v>263706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="S48" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>79</v>
       </c>
-      <c r="C47">
-        <v>174515</v>
-      </c>
-      <c r="D47">
-        <v>183250</v>
-      </c>
-      <c r="E47">
-        <v>262875</v>
-      </c>
-      <c r="F47">
-        <v>263706</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="S49">
+        <v>-137019</v>
+      </c>
+      <c r="T49">
+        <v>-171596</v>
+      </c>
+      <c r="U49">
+        <v>-238323</v>
+      </c>
+      <c r="V49">
+        <v>-274388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S50">
+        <f>S43+S47+S49+S45+S48</f>
+        <v>36213</v>
+      </c>
+      <c r="T50">
+        <f>T43+T47+T49+T45+T48</f>
+        <v>10230</v>
+      </c>
+      <c r="U50">
+        <f>U43+U47+U49+U45+U48</f>
+        <v>22384</v>
+      </c>
+      <c r="V50">
+        <f>V43+V47+V49+V45+V48</f>
+        <v>-10660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="S52">
+        <f>S50+S38</f>
+        <v>58947</v>
+      </c>
+      <c r="T52">
+        <f>T50+T38</f>
+        <v>26477</v>
+      </c>
+      <c r="U52">
+        <f>U50+U38</f>
+        <v>45139</v>
+      </c>
+      <c r="V52">
+        <f>V50+V38</f>
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="S53">
+        <f>S24-S52</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>T24-T52</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>U24-U52</f>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f>V24-V52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="S56" s="22">
+        <v>-50874</v>
+      </c>
+      <c r="T56" s="22">
+        <v>-34577</v>
+      </c>
+      <c r="U56" s="22">
+        <v>-66727</v>
+      </c>
+      <c r="V56" s="22">
+        <v>-36065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="U58">
+        <v>22670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="S59">
+        <v>11336</v>
+      </c>
+      <c r="T59">
+        <v>8666</v>
+      </c>
+      <c r="U59">
+        <v>9167</v>
+      </c>
+      <c r="V59">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="S60">
+        <v>87</v>
+      </c>
+      <c r="T60">
+        <v>68</v>
+      </c>
+      <c r="U60">
+        <v>114</v>
+      </c>
+      <c r="V60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="V61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49">
-        <v>-137019</v>
-      </c>
-      <c r="D49">
-        <v>-171596</v>
-      </c>
-      <c r="E49">
-        <v>-238323</v>
-      </c>
-      <c r="F49">
-        <v>-274388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50">
-        <f>C43+C47+C49+C45+C48</f>
-        <v>36213</v>
-      </c>
-      <c r="D50">
-        <f>D43+D47+D49+D45+D48</f>
-        <v>10230</v>
-      </c>
-      <c r="E50">
-        <f>E43+E47+E49+E45+E48</f>
-        <v>22384</v>
-      </c>
-      <c r="F50">
-        <f>F43+F47+F49+F45+F48</f>
-        <v>-10660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52">
-        <f>C50+C38</f>
-        <v>58947</v>
-      </c>
-      <c r="D52">
-        <f>D50+D38</f>
-        <v>26477</v>
-      </c>
-      <c r="E52">
-        <f>E50+E38</f>
-        <v>45139</v>
-      </c>
-      <c r="F52">
-        <f>F50+F38</f>
-        <v>21123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="S62">
+        <v>472</v>
+      </c>
+      <c r="T62">
+        <v>503</v>
+      </c>
+      <c r="U62">
+        <v>846</v>
+      </c>
+      <c r="V62">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="S63">
+        <v>535</v>
+      </c>
+      <c r="T63">
+        <v>563</v>
+      </c>
+      <c r="U63">
+        <v>420</v>
+      </c>
+      <c r="V63">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="S64">
+        <v>-301</v>
+      </c>
+      <c r="T64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="S65">
+        <v>-2</v>
+      </c>
+      <c r="U65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="V66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="U67">
+        <f>-808</f>
+        <v>-808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="U68">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="S70">
         <v>83</v>
       </c>
-      <c r="C53">
-        <f>C24-C52</f>
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <f>D24-D52</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>E24-E52</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>F24-F52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="24">
-        <v>-50874</v>
-      </c>
-      <c r="D56" s="24">
-        <v>-34577</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59">
-        <v>11336</v>
-      </c>
-      <c r="D59">
-        <v>8666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60">
-        <v>87</v>
-      </c>
-      <c r="D60">
+      <c r="T70">
+        <v>262</v>
+      </c>
+      <c r="U70">
+        <v>582</v>
+      </c>
+      <c r="V70">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="S71">
+        <v>1124</v>
+      </c>
+      <c r="T71">
+        <v>-1390</v>
+      </c>
+      <c r="U71">
+        <v>-320</v>
+      </c>
+      <c r="V71">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="S72">
+        <v>-1300</v>
+      </c>
+      <c r="T72">
+        <v>-1769</v>
+      </c>
+      <c r="U72">
+        <v>535</v>
+      </c>
+      <c r="V72">
+        <v>-1397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="U73">
+        <v>-1003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62">
-        <v>472</v>
-      </c>
-      <c r="D62">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63">
-        <v>535</v>
-      </c>
-      <c r="D63">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="S74">
+        <v>-472</v>
+      </c>
+      <c r="T74">
+        <v>-502</v>
+      </c>
+      <c r="U74">
+        <v>-829</v>
+      </c>
+      <c r="V74">
+        <v>-614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="S75">
+        <v>-79</v>
+      </c>
+      <c r="T75">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="S76">
+        <f>S56+S58+S59+S60+S61+S62+S63+S64+S65+S66+S67+S68+S70+S71+S72+S73+S74+S75</f>
+        <v>-39391</v>
+      </c>
+      <c r="T76">
+        <f>T56+T58+T59+T60+T61+T62+T63+T64+T65+T66+T67+T68+T70+T71+T72+T73+T74+T75</f>
+        <v>-28166</v>
+      </c>
+      <c r="U76">
+        <f>U56+U58+U59+U60+U61+U62+U63+U64+U65+U66+U67+U68+U70+U71+U72+U73+U74+U75</f>
+        <v>-35001</v>
+      </c>
+      <c r="V76">
+        <f>V56+V58+V59+V60+V61+V62+V63+V64+V65+V66+V67+V68+V70+V71+V72+V73+V74+V75</f>
+        <v>-31845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>108</v>
       </c>
-      <c r="C64">
-        <v>-301</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="5">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70">
-        <v>83</v>
-      </c>
-      <c r="D70">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>1124</v>
-      </c>
-      <c r="D71">
-        <v>-1390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72">
-        <v>-1300</v>
-      </c>
-      <c r="D72">
-        <v>-1769</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74">
-        <v>-472</v>
-      </c>
-      <c r="D74">
-        <v>-502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75">
-        <v>-79</v>
-      </c>
-      <c r="D75">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76">
-        <f>C56+C58+C59+C60+C61+C62+C63+C64+C65+C66+C67+C68+C70+C71+C72+C73+C74+C75</f>
-        <v>-39391</v>
-      </c>
-      <c r="D76">
-        <f>D56+D58+D59+D60+D61+D62+D63+D64+D65+D66+D67+D68+D70+D71+D72+D73+D74+D75</f>
-        <v>-28166</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ref="E76:F76" si="2">E56+E58+E59+E60+E61+E62+E63+E64+E65+E66+E67+E68+E70+E71+E72+E73+E74+E75</f>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="S79">
+        <v>-67214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="S80">
+        <v>33750</v>
+      </c>
+      <c r="T80">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S81">
+        <v>-40</v>
+      </c>
+      <c r="U81">
+        <v>-89</v>
+      </c>
+      <c r="V81">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79">
-        <v>-67214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80">
-        <v>33750</v>
-      </c>
-      <c r="D80">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="S82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>113</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="S83">
+        <v>-22</v>
+      </c>
+      <c r="T83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="U84">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C83">
-        <v>-22</v>
-      </c>
-      <c r="D83">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="S85">
+        <f>S79+S80+S82+S81+S83+S84</f>
+        <v>-33524</v>
+      </c>
+      <c r="T85">
+        <f>T79+T80+T82+T81+T83+T84</f>
+        <v>33792</v>
+      </c>
+      <c r="U85">
+        <f>U79+U80+U82+U81+U83+U84</f>
+        <v>2056</v>
+      </c>
+      <c r="V85">
+        <f>V79+V80+V82+V81+V83+V84</f>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C84">
-        <f>C79+C80+C82+C81+C83</f>
-        <v>-33524</v>
-      </c>
-      <c r="D84">
-        <f>D79+D80+D82+D81+D83</f>
-        <v>33792</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="S88">
+        <v>32172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>117</v>
       </c>
-      <c r="C87">
-        <v>32172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
+      <c r="S89">
+        <v>15000</v>
+      </c>
+      <c r="T89">
+        <v>797</v>
+      </c>
+      <c r="U89">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>118</v>
       </c>
-      <c r="C88">
-        <v>15000</v>
-      </c>
-      <c r="D88">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+      <c r="S90">
+        <v>-276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>119</v>
       </c>
-      <c r="C89">
-        <v>-276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
+      <c r="T91">
+        <v>-4583</v>
+      </c>
+      <c r="U91">
+        <v>-11383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>120</v>
       </c>
-      <c r="D90">
-        <v>-4583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
+      <c r="S92">
+        <v>169</v>
+      </c>
+      <c r="T92">
+        <v>71</v>
+      </c>
+      <c r="U92">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>121</v>
       </c>
-      <c r="C91">
-        <v>169</v>
-      </c>
-      <c r="D91">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
+      <c r="S93">
+        <v>710</v>
+      </c>
+      <c r="U93">
+        <v>47718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>122</v>
       </c>
-      <c r="C92">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="S94">
+        <v>-1378</v>
+      </c>
+      <c r="T94">
+        <v>-125</v>
+      </c>
+      <c r="U94">
+        <v>-362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>123</v>
       </c>
-      <c r="C93">
-        <v>-1378</v>
-      </c>
-      <c r="D93">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="S95">
+        <v>403</v>
+      </c>
+      <c r="T95">
+        <v>402</v>
+      </c>
+      <c r="U95">
+        <v>2918</v>
+      </c>
+      <c r="V95">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>124</v>
       </c>
-      <c r="C94">
-        <v>403</v>
-      </c>
-      <c r="D94">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+      <c r="S96">
+        <f>S88+S89+S90+S91+S92+S93+S94+S95</f>
+        <v>46800</v>
+      </c>
+      <c r="T96">
+        <f>T88+T89+T90+T91+T92+T93+T94+T95</f>
+        <v>-3438</v>
+      </c>
+      <c r="U96">
+        <f>U88+U89+U90+U91+U92+U93+U94+U95</f>
+        <v>50788</v>
+      </c>
+      <c r="V96">
+        <f>V88+V89+V90+V91+V92+V93+V94+V95</f>
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>125</v>
       </c>
-      <c r="C95">
-        <f>C87+C88+C89+C90+C91+C92+C93+C94</f>
-        <v>46800</v>
-      </c>
-      <c r="D95">
-        <f>D87+D88+D89+D90+D91+D92+D93+D94</f>
-        <v>-3438</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="S98">
+        <f>S96+S85+S76</f>
+        <v>-26115</v>
+      </c>
+      <c r="T98">
+        <f>T96+T85+T76</f>
+        <v>2188</v>
+      </c>
+      <c r="U98">
+        <f>U96+U85+U76</f>
+        <v>17843</v>
+      </c>
+      <c r="V98">
+        <f>V96+V85+V76</f>
+        <v>-23099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>126</v>
       </c>
-      <c r="C97">
-        <f>C95+C84+C76</f>
-        <v>-26115</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ref="D97:F97" si="3">D95+D84+D76</f>
-        <v>2188</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="S99">
+        <v>48651</v>
+      </c>
+      <c r="T99">
+        <f>S100</f>
+        <v>22536</v>
+      </c>
+      <c r="U99">
+        <f>T100</f>
+        <v>24724</v>
+      </c>
+      <c r="V99">
+        <f>U100</f>
+        <v>42567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>127</v>
       </c>
-      <c r="C98">
-        <v>48651</v>
-      </c>
-      <c r="D98">
-        <f>C99</f>
+      <c r="S100">
+        <f>S99+S98</f>
         <v>22536</v>
       </c>
-      <c r="E98">
-        <f t="shared" ref="E98:F98" si="4">D99</f>
+      <c r="T100">
+        <f>T99+T98</f>
         <v>24724</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="4"/>
-        <v>24724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99">
-        <f>C98+C97</f>
-        <v>22536</v>
-      </c>
-      <c r="D99">
-        <f>D98+D97</f>
-        <v>24724</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ref="E99:F99" si="5">E98+E97</f>
-        <v>24724</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="5"/>
-        <v>24724</v>
+      <c r="U100">
+        <f>U99+U98</f>
+        <v>42567</v>
+      </c>
+      <c r="V100">
+        <f>V99+V98</f>
+        <v>19468</v>
       </c>
     </row>
   </sheetData>
@@ -2437,33 +2643,33 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>129</v>
+      <c r="A4" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2471,7 +2677,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <f>17/2</f>
@@ -2480,7 +2686,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2488,40 +2694,40 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>134</v>
+      <c r="A18" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -2531,22 +2737,22 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A2B621-32B9-024E-A576-9CCD49173DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E9F06-D689-174B-9E5C-D94A42EFC47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="980" windowWidth="21060" windowHeight="18660" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>ELOXX Pharmaceuticals, Inc.</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Cash received in merger activities</t>
   </si>
   <si>
-    <t>1Q20</t>
-  </si>
-  <si>
     <t>2Q20A</t>
   </si>
   <si>
@@ -559,6 +556,45 @@
   </si>
   <si>
     <t>1Q23A</t>
+  </si>
+  <si>
+    <t>1Q20A</t>
+  </si>
+  <si>
+    <t>FY2019A</t>
+  </si>
+  <si>
+    <t>FY2020A</t>
+  </si>
+  <si>
+    <t>FY2021A</t>
+  </si>
+  <si>
+    <t>FY2022A</t>
+  </si>
+  <si>
+    <t>FY2023E</t>
+  </si>
+  <si>
+    <t>FY2024E</t>
+  </si>
+  <si>
+    <t>FY2025E</t>
+  </si>
+  <si>
+    <t>FY2026E</t>
+  </si>
+  <si>
+    <t>Fy2027E</t>
+  </si>
+  <si>
+    <t>FY2028E</t>
+  </si>
+  <si>
+    <t>FY2029E</t>
+  </si>
+  <si>
+    <t>FY2030E</t>
   </si>
 </sst>
 </file>
@@ -1351,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0775DCD-32FC-5242-8CB9-09C4DDA90C5B}">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,74 +1403,92 @@
     <col min="20" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>150</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>151</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>152</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>153</v>
       </c>
-      <c r="O1" t="s">
-        <v>154</v>
-      </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="T1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="U1" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="W1" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="X1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +1511,7 @@
         <v>23727</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1534,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1488,7 +1542,7 @@
         <v>22670</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1550,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1519,7 +1573,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1544,26 +1598,26 @@
         <v>2166311</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>

--- a/ELOX Model.xlsx
+++ b/ELOX Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E9F06-D689-174B-9E5C-D94A42EFC47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63B5A7-C95A-6241-A83D-0ABCD0A53285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="980" windowWidth="21060" windowHeight="18660" activeTab="1" xr2:uid="{233F92D4-0F62-CE4C-83A4-0192E412111F}"/>
   </bookViews>
@@ -1390,10 +1390,10 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
